--- a/umit_files/umit_rus.xlsx
+++ b/umit_files/umit_rus.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1f3wdinaxFi4TFTEfN32ZTxXmal99HbAQwN6uuZh4Opg/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Орфография")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1bPFlO2gj1EC-wyL2Jyj90p8J3G6nn6eGty-MZ4deguY/edit"",""УМИТЫ!A:Z"")"),"Орфография")</f>
         <v>Орфография</v>
       </c>
       <c r="B1" s="1"/>
@@ -3055,8 +3057,14 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Инверсия")</f>
+        <v>Инверсия</v>
+      </c>
+      <c r="J37" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
+      </c>
       <c r="K37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причастие")</f>
         <v>Причастие</v>

--- a/umit_files/umit_rus.xlsx
+++ b/umit_files/umit_rus.xlsx
@@ -1749,8 +1749,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
         <v>217</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первообразные прилагательные")</f>
+        <v>Первообразные прилагательные</v>
+      </c>
+      <c r="H18" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
+      </c>
       <c r="I18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Паронимы")</f>
         <v>Паронимы</v>
@@ -1825,8 +1831,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
         <v>218</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная и производящая основа")</f>
+        <v>Производная и производящая основа</v>
+      </c>
+      <c r="H19" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),318.0)</f>
+        <v>318</v>
+      </c>
       <c r="I19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метафора. Олицетворение")</f>
         <v>Метафора. Олицетворение</v>
@@ -1901,8 +1913,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
         <v>219</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфемный разбор")</f>
+        <v>Морфемный разбор</v>
+      </c>
+      <c r="H20" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
+        <v>319</v>
+      </c>
       <c r="I20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпитет")</f>
         <v>Эпитет</v>
@@ -1977,8 +1995,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
         <v>220</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический разбор")</f>
+        <v>Лексический разбор</v>
+      </c>
+      <c r="H21" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
+      </c>
       <c r="I21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сравнение")</f>
         <v>Сравнение</v>
@@ -2053,8 +2077,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
         <v>221</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Звукопись")</f>
+        <v>Звукопись</v>
+      </c>
+      <c r="H22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
+      </c>
       <c r="I22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метонимия")</f>
         <v>Метонимия</v>
@@ -2071,8 +2101,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
         <v>521</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разговорный стиль речи")</f>
+        <v>Разговорный стиль речи</v>
+      </c>
+      <c r="N22" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),621.0)</f>
+        <v>621</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="str">
@@ -2123,8 +2159,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
         <v>222</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точка с запятой в БСП")</f>
+        <v>Точка с запятой в БСП</v>
+      </c>
+      <c r="H23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
+        <v>322</v>
+      </c>
       <c r="I23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синекдоха")</f>
         <v>Синекдоха</v>
@@ -2141,8 +2183,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
         <v>522</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Научный стиль речи")</f>
+        <v>Научный стиль речи</v>
+      </c>
+      <c r="N23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
+        <v>622</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="str">
@@ -2193,8 +2241,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
         <v>223</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение проблемы")</f>
+        <v>Определение проблемы</v>
+      </c>
+      <c r="H24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
       <c r="I24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гипербола")</f>
         <v>Гипербола</v>
@@ -2211,8 +2265,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
         <v>523</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Официально-деловой стиль речи")</f>
+        <v>Официально-деловой стиль речи</v>
+      </c>
+      <c r="N24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),623.0)</f>
+        <v>623</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="str">
@@ -2263,8 +2323,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
         <v>224</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование примеров-иллюстраций из прочитанного текста")</f>
+        <v>Формулирование примеров-иллюстраций из прочитанного текста</v>
+      </c>
+      <c r="H25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
+      </c>
       <c r="I25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литота")</f>
         <v>Литота</v>
@@ -2281,8 +2347,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
         <v>524</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Художественный стиль речи")</f>
+        <v>Художественный стиль речи</v>
+      </c>
+      <c r="N25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
+        <v>624</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="str">
@@ -2333,8 +2405,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
         <v>225</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пояснение примеров-иллюстраций")</f>
+        <v>Пояснение примеров-иллюстраций</v>
+      </c>
+      <c r="H26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
       <c r="I26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ирония. Сарказм")</f>
         <v>Ирония. Сарказм</v>
@@ -2351,8 +2429,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
         <v>525</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Публицистический стиль речи")</f>
+        <v>Публицистический стиль речи</v>
+      </c>
+      <c r="N26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
+        <v>625</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="str">
@@ -2403,8 +2487,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
         <v>226</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смысловая связь между примерами-иллюстрациями и её анализ")</f>
+        <v>Смысловая связь между примерами-иллюстрациями и её анализ</v>
+      </c>
+      <c r="H27" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
+      </c>
       <c r="I27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перифраз")</f>
         <v>Перифраз</v>
@@ -2421,8 +2511,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
         <v>526</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жанр текста")</f>
+        <v>Жанр текста</v>
+      </c>
+      <c r="N27" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
+        <v>626</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="str">
@@ -2473,8 +2569,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
         <v>227</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение авторской позиции")</f>
+        <v>Определение авторской позиции</v>
+      </c>
+      <c r="H28" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
+      </c>
       <c r="I28" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Употребление слова в несвойственном ему значении")</f>
         <v>Употребление слова в несвойственном ему значении</v>
@@ -2491,8 +2593,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
         <v>527</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы речи")</f>
+        <v>Типы речи</v>
+      </c>
+      <c r="N28" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),627.0)</f>
+        <v>627</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="str">
@@ -2543,8 +2651,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
         <v>228</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулирование и обоснование своей позиции")</f>
+        <v>Формулирование и обоснование своей позиции</v>
+      </c>
+      <c r="H29" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
+      </c>
       <c r="I29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неразличение оттенков значения, вносимых в слово приставкой и суффиксом")</f>
         <v>Неразличение оттенков значения, вносимых в слово приставкой и суффиксом</v>
@@ -2561,8 +2675,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
         <v>528</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфологические признаки")</f>
+        <v>Морфологические признаки</v>
+      </c>
+      <c r="N29" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
+        <v>628</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2625,8 +2745,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
         <v>529</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексические признаки")</f>
+        <v>Лексические признаки</v>
+      </c>
+      <c r="N30" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
+        <v>629</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2689,8 +2815,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
         <v>530</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксические признаки")</f>
+        <v>Синтаксические признаки</v>
+      </c>
+      <c r="N31" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
+        <v>630</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2753,8 +2885,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
         <v>531</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средства выразительности")</f>
+        <v>Средства выразительности</v>
+      </c>
+      <c r="N32" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
+        <v>631</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2817,8 +2955,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),532.0)</f>
         <v>532</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Анализ содержания текста")</f>
+        <v>Анализ содержания текста</v>
+      </c>
+      <c r="N33" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),632.0)</f>
+        <v>632</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2881,8 +3025,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533.0)</f>
         <v>533</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личные местоимения")</f>
+        <v>Личные местоимения</v>
+      </c>
+      <c r="N34" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),633.0)</f>
+        <v>633</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2945,8 +3095,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),534.0)</f>
         <v>534</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Притяжательные местоимения")</f>
+        <v>Притяжательные местоимения</v>
+      </c>
+      <c r="N35" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634.0)</f>
+        <v>634</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3009,8 +3165,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535.0)</f>
         <v>535</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Указательные местоимения")</f>
+        <v>Указательные местоимения</v>
+      </c>
+      <c r="N36" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),635.0)</f>
+        <v>635</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3073,8 +3235,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
         <v>536</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения")</f>
+        <v>Определительные местоимения</v>
+      </c>
+      <c r="N37" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),636.0)</f>
+        <v>636</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3121,8 +3289,14 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в кратких отглагольных прилагательных")</f>
+        <v>Правописание -НН- в кратких отглагольных прилагательных</v>
+      </c>
+      <c r="J38" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
+        <v>437</v>
+      </c>
       <c r="K38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вид, переходность, возвратность, время причастий")</f>
         <v>Вид, переходность, возвратность, время причастий</v>
@@ -3131,8 +3305,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),537.0)</f>
         <v>537</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="M38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неопределенные местоимения")</f>
+        <v>Неопределенные местоимения</v>
+      </c>
+      <c r="N38" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),637.0)</f>
+        <v>637</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3179,8 +3359,14 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="I39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение</v>
+      </c>
+      <c r="J39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
+      </c>
       <c r="K39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Залог причастий")</f>
         <v>Залог причастий</v>
@@ -3189,8 +3375,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),538.0)</f>
         <v>538</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отрицательные местоимения")</f>
+        <v>Отрицательные местоимения</v>
+      </c>
+      <c r="N39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),638.0)</f>
+        <v>638</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3237,8 +3429,14 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с несколькими рядами однородных членов")</f>
+        <v>Пунктуация в простом предложении с несколькими рядами однородных членов</v>
+      </c>
+      <c r="J40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
       <c r="K40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Род, число, падеж причастий")</f>
         <v>Род, число, падеж причастий</v>
@@ -3247,8 +3445,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),539.0)</f>
         <v>539</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Относительные местоимения")</f>
+        <v>Относительные местоимения</v>
+      </c>
+      <c r="N40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),639.0)</f>
+        <v>639</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3295,8 +3499,14 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общим членом")</f>
+        <v>Знаки препинания в ССП с общим членом</v>
+      </c>
+      <c r="J41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),440.0)</f>
+        <v>440</v>
+      </c>
       <c r="K41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полные и краткие причастия")</f>
         <v>Полные и краткие причастия</v>
@@ -3305,8 +3515,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),540.0)</f>
         <v>540</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="M41" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Орфоэпические нормы")</f>
+        <v>Орфоэпические нормы</v>
+      </c>
+      <c r="N41" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),640.0)</f>
+        <v>640</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3353,8 +3569,14 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разграничение вводных слов и членов предложения")</f>
+        <v>Разграничение вводных слов и членов предложения</v>
+      </c>
+      <c r="J42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
+      </c>
       <c r="K42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причастия и отглагольные прилагательные")</f>
         <v>Причастия и отглагольные прилагательные</v>
@@ -3363,8 +3585,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
         <v>541</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическое значение многозначного слова")</f>
+        <v>Лексическое значение многозначного слова</v>
+      </c>
+      <c r="N42" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
+        <v>641</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3411,8 +3639,14 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при однородных членах")</f>
+        <v>Запятая при однородных членах</v>
+      </c>
+      <c r="J43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
       <c r="K43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деепричастие")</f>
         <v>Деепричастие</v>
@@ -3421,8 +3655,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
         <v>542</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексическая сочетаемость")</f>
+        <v>Лексическая сочетаемость</v>
+      </c>
+      <c r="N43" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
+        <v>642</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3469,8 +3709,14 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в БСП")</f>
+        <v>Запятая в БСП</v>
+      </c>
+      <c r="J44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
       <c r="K44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вид деепричастия")</f>
         <v>Вид деепричастия</v>
@@ -3479,8 +3725,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),543.0)</f>
         <v>543</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление имен числительных")</f>
+        <v>Нормативное образование и употребление имен числительных</v>
+      </c>
+      <c r="N44" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
+        <v>643</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -3521,8 +3773,14 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в ССП")</f>
+        <v>Запятая в ССП</v>
+      </c>
+      <c r="J45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
       <c r="K45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союзы")</f>
         <v>Союзы</v>
@@ -3531,14 +3789,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),544.0)</f>
         <v>544</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление именительного падежа множественного числа существительных")</f>
+        <v>Нормативное образование и употребление именительного падежа множественного числа существительных</v>
+      </c>
+      <c r="N45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),644.0)</f>
+        <v>644</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="S45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иметь представление о роли, значении и функциях русского языка")</f>
+        <v>Иметь представление о роли, значении и функциях русского языка</v>
+      </c>
+      <c r="T45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),944.0)</f>
+        <v>944</v>
+      </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -3567,8 +3837,14 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="I46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном определении")</f>
+        <v>Запятая при обособленном определении</v>
+      </c>
+      <c r="J46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
+      </c>
       <c r="K46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и составные союзы")</f>
         <v>Простые и составные союзы</v>
@@ -3577,14 +3853,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),545.0)</f>
         <v>545</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление родительного падежа множественного числа существительных")</f>
+        <v>Нормативное образование и употребление родительного падежа множественного числа существительных</v>
+      </c>
+      <c r="N46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),645.0)</f>
+        <v>645</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="S46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание качеств, свойств и норм речи")</f>
+        <v>Знание качеств, свойств и норм речи</v>
+      </c>
+      <c r="T46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),945.0)</f>
+        <v>945</v>
+      </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -3613,8 +3901,14 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном приложении")</f>
+        <v>Запятая при обособленном приложении</v>
+      </c>
+      <c r="J47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
       <c r="K47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производные и непроизводные союзы")</f>
         <v>Производные и непроизводные союзы</v>
@@ -3623,14 +3917,26 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
         <v>546</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий")</f>
+        <v>Нормативное образование и употребление сравнительной и превосходной степеней имён прилагательных и наречий</v>
+      </c>
+      <c r="N47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
+        <v>646</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="S47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры ЕГЭ и ориентирование в распределении баллов")</f>
+        <v>Знание структуры ЕГЭ и ориентирование в распределении баллов</v>
+      </c>
+      <c r="T47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),946.0)</f>
+        <v>946</v>
+      </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -3659,8 +3965,14 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обособленном обстоятельстве")</f>
+        <v>Запятая при обособленном обстоятельстве</v>
+      </c>
+      <c r="J48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
+        <v>447</v>
+      </c>
       <c r="K48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двойные союзы")</f>
         <v>Двойные союзы</v>
@@ -3669,8 +3981,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),547.0)</f>
         <v>547</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм глаголов")</f>
+        <v>Нормативное образование и употребление форм глаголов</v>
+      </c>
+      <c r="N48" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
+        <v>647</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3705,8 +4023,14 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="I49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при уточнении времени и места")</f>
+        <v>Запятая при уточнении времени и места</v>
+      </c>
+      <c r="J49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
+      </c>
       <c r="K49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинительные союзы")</f>
         <v>Сочинительные союзы</v>
@@ -3715,8 +4039,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
         <v>548</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однокоренные слова. Корневая омонимия. Формы слова")</f>
+        <v>Однокоренные слова. Корневая омонимия. Формы слова</v>
+      </c>
+      <c r="N49" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
+        <v>648</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3751,8 +4081,14 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при вводном слове (вводной конструкции)")</f>
+        <v>Запятая при вводном слове (вводной конструкции)</v>
+      </c>
+      <c r="J50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
+        <v>449</v>
+      </c>
       <c r="K50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды сочинительных союзов")</f>
         <v>Разряды сочинительных союзов</v>
@@ -3761,8 +4097,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),549.0)</f>
         <v>549</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных чередующихся гласных в корне слова")</f>
+        <v>Правописание безударных чередующихся гласных в корне слова</v>
+      </c>
+      <c r="N50" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),649.0)</f>
+        <v>649</v>
+      </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -3797,8 +4139,14 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при обращении")</f>
+        <v>Запятая при обращении</v>
+      </c>
+      <c r="J51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.0)</f>
+        <v>450</v>
+      </c>
       <c r="K51" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подчинительные союзы")</f>
         <v>Подчинительные союзы</v>
@@ -3807,8 +4155,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),550.0)</f>
         <v>550</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание разделительных Ъ/Ь")</f>
+        <v>Правописание разделительных Ъ/Ь</v>
+      </c>
+      <c r="N51" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),650.0)</f>
+        <v>650</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -3843,8 +4197,14 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая в СПП")</f>
+        <v>Запятая в СПП</v>
+      </c>
+      <c r="J52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
       <c r="K52" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды подчинительных союзов по значению")</f>
         <v>Разряды подчинительных союзов по значению</v>
@@ -3853,8 +4213,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),551.0)</f>
         <v>551</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание приставок на -З и -С")</f>
+        <v>Правописание приставок на -З и -С</v>
+      </c>
+      <c r="N52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),651.0)</f>
+        <v>651</v>
+      </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -3889,8 +4255,14 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="I53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при сравнительном обороте")</f>
+        <v>Запятая при сравнительном обороте</v>
+      </c>
+      <c r="J53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
       <c r="K53" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союзные слова")</f>
         <v>Союзные слова</v>
@@ -3899,8 +4271,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),552.0)</f>
         <v>552</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неизменяемые суффиксы существительных")</f>
+        <v>Неизменяемые суффиксы существительных</v>
+      </c>
+      <c r="N53" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),652.0)</f>
+        <v>652</v>
+      </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -3935,8 +4313,14 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Запятая при прямой речи")</f>
+        <v>Запятая при прямой речи</v>
+      </c>
+      <c r="J54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
       <c r="K54" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Предлоги")</f>
         <v>Предлоги</v>
@@ -3945,8 +4329,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),553.0)</f>
         <v>553</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕТ- и -ОТ-")</f>
+        <v>Суффиксы существительных -ЕТ- и -ОТ-</v>
+      </c>
+      <c r="N54" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),653.0)</f>
+        <v>653</v>
+      </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -3981,8 +4371,14 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="I55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при обобщающем слове")</f>
+        <v>Тире при обобщающем слове</v>
+      </c>
+      <c r="J55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
       <c r="K55" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простые и составные предлоги")</f>
         <v>Простые и составные предлоги</v>
@@ -3991,8 +4387,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),554.0)</f>
         <v>554</v>
       </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы существительных -ЕСТ- и -ОСТ-")</f>
+        <v>Суффиксы существительных -ЕСТ- и -ОСТ-</v>
+      </c>
+      <c r="N55" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),654.0)</f>
+        <v>654</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -4027,8 +4429,14 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при приложении")</f>
+        <v>Тире при приложении</v>
+      </c>
+      <c r="J56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),455.0)</f>
+        <v>455</v>
+      </c>
       <c r="K56" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды предлогов по значению")</f>
         <v>Разряды предлогов по значению</v>
@@ -4037,8 +4445,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),555.0)</f>
         <v>555</v>
       </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="M56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс существительных ЁР")</f>
+        <v>Суффикс существительных ЁР</v>
+      </c>
+      <c r="N56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),655.0)</f>
+        <v>655</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -4073,8 +4487,14 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире при прямой речи")</f>
+        <v>Тире при прямой речи</v>
+      </c>
+      <c r="J57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
       <c r="K57" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производные и непроизводные предлоги")</f>
         <v>Производные и непроизводные предлоги</v>
@@ -4083,8 +4503,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),556.0)</f>
         <v>556</v>
       </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="M57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласные О и Ё в суффиксах отымённых и отглагольных существительных")</f>
+        <v>Гласные О и Ё в суффиксах отымённых и отглагольных существительных</v>
+      </c>
+      <c r="N57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),656.0)</f>
+        <v>656</v>
+      </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -4119,8 +4545,14 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире в диалоге")</f>
+        <v>Тире в диалоге</v>
+      </c>
+      <c r="J58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
+        <v>457</v>
+      </c>
       <c r="K58" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Междометия")</f>
         <v>Междометия</v>
@@ -4129,8 +4561,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),557.0)</f>
         <v>557</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффикса глаголов перед ударным -ВА-")</f>
+        <v>Правописание суффикса глаголов перед ударным -ВА-</v>
+      </c>
+      <c r="N58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),657.0)</f>
+        <v>657</v>
+      </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -4165,8 +4603,14 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тире между словами, указывающие пространственные, временные или количественные пределы")</f>
+        <v>Тире между словами, указывающие пространственные, временные или количественные пределы</v>
+      </c>
+      <c r="J59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
       <c r="K59" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разряды местоимений")</f>
         <v>Разряды местоимений</v>
@@ -4175,8 +4619,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),558.0)</f>
         <v>558</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="M59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
+        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
+      </c>
+      <c r="N59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),658.0)</f>
+        <v>658</v>
+      </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -4211,8 +4661,14 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие при однородных членах")</f>
+        <v>Двоеточие при однородных членах</v>
+      </c>
+      <c r="J60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
+      </c>
       <c r="K60" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы")</f>
         <v>Частицы</v>
@@ -4221,8 +4677,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),559.0)</f>
         <v>559</v>
       </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="M60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ударная буква Ё в суффиксе глагола после шипящих")</f>
+        <v>Ударная буква Ё в суффиксе глагола после шипящих</v>
+      </c>
+      <c r="N60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
+        <v>659</v>
+      </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -4257,8 +4719,14 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двоеточие при прямой речи")</f>
+        <v>Двоеточие при прямой речи</v>
+      </c>
+      <c r="J61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
       <c r="K61" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формообразующие частицы")</f>
         <v>Формообразующие частицы</v>
@@ -4267,8 +4735,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),560.0)</f>
         <v>560</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Глагольные суффиксы в причастиях и деепричастиях")</f>
+        <v>Глагольные суффиксы в причастиях и деепричастиях</v>
+      </c>
+      <c r="N61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),660.0)</f>
+        <v>660</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -4303,8 +4777,14 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Повествование")</f>
+        <v>Повествование</v>
+      </c>
+      <c r="J62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461.0)</f>
+        <v>461</v>
+      </c>
       <c r="K62" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смыслообразующие частицы и их разряды")</f>
         <v>Смыслообразующие частицы и их разряды</v>
@@ -4313,8 +4793,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
         <v>561</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧИВ-/-ЛИВ")</f>
+        <v>Суффиксы прилагательных -ЧИВ-/-ЛИВ</v>
+      </c>
+      <c r="N62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),661.0)</f>
+        <v>661</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -4349,8 +4835,14 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описание")</f>
+        <v>Описание</v>
+      </c>
+      <c r="J63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
+      </c>
       <c r="K63" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морфологический разбор слова")</f>
         <v>Морфологический разбор слова</v>
@@ -4359,8 +4851,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),562.0)</f>
         <v>562</v>
       </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="M63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффикс прилагательных -ИСТ-")</f>
+        <v>Суффикс прилагательных -ИСТ-</v>
+      </c>
+      <c r="N63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),662.0)</f>
+        <v>662</v>
+      </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -4395,12 +4893,24 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рассуждение")</f>
+        <v>Рассуждение</v>
+      </c>
+      <c r="J64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
+        <v>463</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-")</f>
+        <v>Суффиксы прилагательных -ЧЕСК-/-ИЧЕСК-</v>
+      </c>
+      <c r="N64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
+        <v>663</v>
+      </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -4435,12 +4945,24 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулировки, обозначающие отношения между предложениями")</f>
+        <v>Формулировки, обозначающие отношения между предложениями</v>
+      </c>
+      <c r="J65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы прилагательных -ИЧ-/-ЕЧ-")</f>
+        <v>Суффиксы прилагательных -ИЧ-/-ЕЧ-</v>
+      </c>
+      <c r="N65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
+        <v>664</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -4475,12 +4997,24 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический анализ слова в тексте")</f>
+        <v>Лексический анализ слова в тексте</v>
+      </c>
+      <c r="J66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),465.0)</f>
+        <v>465</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гласная перед Н и НН в отымённых прилагательных")</f>
+        <v>Гласная перед Н и НН в отымённых прилагательных</v>
+      </c>
+      <c r="N66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
+        <v>665</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -4515,12 +5049,24 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Личные местоимения как средство связи")</f>
+        <v>Личные местоимения как средство связи</v>
+      </c>
+      <c r="J67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Суффиксы наречий")</f>
+        <v>Суффиксы наречий</v>
+      </c>
+      <c r="N67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
+        <v>666</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -4555,12 +5101,24 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Притяжательные местоимения как средство связи")</f>
+        <v>Притяжательные местоимения как средство связи</v>
+      </c>
+      <c r="J68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
+        <v>467</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание безударных личных окончаний глаголов-исключений")</f>
+        <v>Правописание безударных личных окончаний глаголов-исключений</v>
+      </c>
+      <c r="N68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),667.0)</f>
+        <v>667</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -4595,12 +5153,24 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="I69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Указательные местоимения как средство связи")</f>
+        <v>Указательные местоимения как средство связи</v>
+      </c>
+      <c r="J69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ")</f>
+        <v>Правописание суффиксов причастий УЩ, ЮЩ, АЩ, ЯЩ</v>
+      </c>
+      <c r="N69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
+        <v>668</v>
+      </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -4635,12 +5205,24 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="I70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определительные местоимения как средство связи")</f>
+        <v>Определительные местоимения как средство связи</v>
+      </c>
+      <c r="J70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
+        <v>469</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание суффиксов причастий ЕМ и ИМ")</f>
+        <v>Правописание суффиксов причастий ЕМ и ИМ</v>
+      </c>
+      <c r="N70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
+        <v>669</v>
+      </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -4675,12 +5257,24 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="I71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тропы")</f>
+        <v>Тропы</v>
+      </c>
+      <c r="J71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед НН в причастиях")</f>
+        <v>Правописание гласной перед НН в причастиях</v>
+      </c>
+      <c r="N71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
+        <v>670</v>
+      </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -4715,12 +5309,24 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="I72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексические средства выразительности")</f>
+        <v>Лексические средства выразительности</v>
+      </c>
+      <c r="J72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="M72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание гласной перед -ВШ- в причастиях")</f>
+        <v>Правописание гласной перед -ВШ- в причастиях</v>
+      </c>
+      <c r="N72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
+        <v>671</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -4755,12 +5361,24 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="I73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксические средства выразительности")</f>
+        <v>Синтаксические средства выразительности</v>
+      </c>
+      <c r="J73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, которое без НЕ не употребляется")</f>
+        <v>Написание НЕ со словом, которое без НЕ не употребляется</v>
+      </c>
+      <c r="N73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
+        <v>672</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -4795,12 +5413,24 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="I74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Приёмы")</f>
+        <v>Приёмы</v>
+      </c>
+      <c r="J74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="M74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом, у которого есть синоним без НЕ")</f>
+        <v>Написание НЕ со словом, у которого есть синоним без НЕ</v>
+      </c>
+      <c r="N74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
+        <v>673</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -4835,12 +5465,24 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="I75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Форма речи")</f>
+        <v>Форма речи</v>
+      </c>
+      <c r="J75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),474.0)</f>
+        <v>474</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="M75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с полными одиночными причастиями")</f>
+        <v>Написание НЕ с полными одиночными причастиями</v>
+      </c>
+      <c r="N75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674.0)</f>
+        <v>674</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -4879,8 +5521,14 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="M76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами с наречиями меры и степени")</f>
+        <v>Написание НЕ со словами с наречиями меры и степени</v>
+      </c>
+      <c r="N76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
+        <v>675</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -4913,8 +5561,14 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями")</f>
+        <v>Написание НЕ с неопределенными местоимениями</v>
+      </c>
+      <c r="N77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),676.0)</f>
+        <v>676</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -4947,8 +5601,14 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="M78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с отрицательными наречиями")</f>
+        <v>Написание НЕ с отрицательными наречиями</v>
+      </c>
+      <c r="N78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
+        <v>677</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -4981,8 +5641,14 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="M79" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом НО")</f>
+        <v>Написание НЕ со словом при противопоставлении с союзом НО</v>
+      </c>
+      <c r="N79" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
+        <v>678</v>
+      </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -5015,8 +5681,14 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с производным предлогом")</f>
+        <v>Написание НЕ с производным предлогом</v>
+      </c>
+      <c r="N80" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
+        <v>679</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -5049,8 +5721,14 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами через дефис")</f>
+        <v>Написание НЕ со словами через дефис</v>
+      </c>
+      <c r="N81" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
+        <v>680</v>
+      </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -5083,8 +5761,14 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="M82" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словом при противопоставлении с союзом А")</f>
+        <v>Написание НЕ со словом при противопоставлении с союзом А</v>
+      </c>
+      <c r="N82" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),681.0)</f>
+        <v>681</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -5117,8 +5801,14 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="M83" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с кратким прилагательными, которые не имеют полную форму")</f>
+        <v>Написание НЕ с кратким прилагательными, которые не имеют полную форму</v>
+      </c>
+      <c r="N83" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
+        <v>682</v>
+      </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -5151,8 +5841,14 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами, усиливающими отрицание")</f>
+        <v>Написание НЕ со словами, усиливающими отрицание</v>
+      </c>
+      <c r="N84" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
+        <v>683</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5185,8 +5881,14 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами")</f>
+        <v>Написание НЕ с глаголами, деепричастиями, наречиями не на -о и -е, краткими причастиями, числительными, союзами, частицами и предлогами</v>
+      </c>
+      <c r="N85" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
+        <v>684</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -5219,8 +5921,14 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с причастиями с зависимыми словами")</f>
+        <v>Написание НЕ с причастиями с зависимыми словами</v>
+      </c>
+      <c r="N86" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),685.0)</f>
+        <v>685</v>
+      </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -5253,8 +5961,14 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="M87" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ со словами в сравнительной степени")</f>
+        <v>Написание НЕ со словами в сравнительной степени</v>
+      </c>
+      <c r="N87" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
+        <v>686</v>
+      </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5287,8 +6001,14 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="M88" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с относительными прилагательными")</f>
+        <v>Написание НЕ с относительными прилагательными</v>
+      </c>
+      <c r="N88" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
+        <v>687</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -5321,8 +6041,14 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с наречиями в безличных предложениях")</f>
+        <v>Написание НЕ с наречиями в безличных предложениях</v>
+      </c>
+      <c r="N89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
+        <v>688</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -5355,8 +6081,14 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="M90" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ с неопределенными местоимениями с предлогом")</f>
+        <v>Написание НЕ с неопределенными местоимениями с предлогом</v>
+      </c>
+      <c r="N90" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
+        <v>689</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -5389,8 +6121,14 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="M91" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НЕ в вопросительных предложениях")</f>
+        <v>Написание НЕ в вопросительных предложениях</v>
+      </c>
+      <c r="N91" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
+        <v>690</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -5423,8 +6161,14 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ в отрицательных местоимениях и наречиях")</f>
+        <v>Написание НИ в отрицательных местоимениях и наречиях</v>
+      </c>
+      <c r="N92" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
+        <v>691</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -5457,8 +6201,14 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ со словом, которое без НИ не употребляется")</f>
+        <v>Написание НИ со словом, которое без НИ не употребляется</v>
+      </c>
+      <c r="N93" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
+        <v>692</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -5491,8 +6241,14 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Написание НИ с местоимениями с предлогом")</f>
+        <v>Написание НИ с местоимениями с предлогом</v>
+      </c>
+      <c r="N94" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
+        <v>693</v>
+      </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -5525,8 +6281,14 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Раздельное написание НИ")</f>
+        <v>Раздельное написание НИ</v>
+      </c>
+      <c r="N95" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
+        <v>694</v>
+      </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -5559,8 +6321,14 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="M96" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное и раздельное написание производных предлогов")</f>
+        <v>Слитное и раздельное написание производных предлогов</v>
+      </c>
+      <c r="N96" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
+        <v>695</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -5593,8 +6361,14 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="M97" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дефисное написание")</f>
+        <v>Дефисное написание</v>
+      </c>
+      <c r="N97" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
+        <v>696</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -5627,8 +6401,14 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
+        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
+      </c>
+      <c r="N98" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
+        <v>697</v>
+      </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -5661,8 +6441,14 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="M99" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в притяжательных прилагательных")</f>
+        <v>Правописание -Н- в притяжательных прилагательных</v>
+      </c>
+      <c r="N99" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
+        <v>698</v>
+      </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -5695,8 +6481,14 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="M100" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя")</f>
+        <v>Правописание -НН- в отымённых прилагательных, которые образованы от существительных на -мя</v>
+      </c>
+      <c r="N100" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
+        <v>699</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>

--- a/umit_files/umit_rus.xlsx
+++ b/umit_files/umit_rus.xlsx
@@ -315,9 +315,15 @@
         <v>Навыки и умения</v>
       </c>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Работа с текстом")</f>
+        <v>Работа с текстом</v>
+      </c>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="W1" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сочинение")</f>
+        <v>Сочинение</v>
+      </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -403,10 +409,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),901.0)</f>
         <v>901</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="U2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вводные слова как средство связи")</f>
+        <v>Вводные слова как средство связи</v>
+      </c>
+      <c r="V2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1001.0)</f>
+        <v>1001</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание структуры итогового сочинения")</f>
+        <v>Знание структуры итогового сочинения</v>
+      </c>
+      <c r="X2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
+        <v>1101</v>
+      </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
@@ -491,10 +509,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),902.0)</f>
         <v>902</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="U3" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формы слова как средство связи")</f>
+        <v>Формы слова как средство связи</v>
+      </c>
+      <c r="V3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1002.0)</f>
+        <v>1002</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение комментировать авторские высказывания на различные темы")</f>
+        <v>Умение комментировать авторские высказывания на различные темы</v>
+      </c>
+      <c r="X3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
+        <v>1102</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
@@ -579,10 +609,22 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),903.0)</f>
         <v>903</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="U4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однокоренные слова как средство связи")</f>
+        <v>Однокоренные слова как средство связи</v>
+      </c>
+      <c r="V4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.0)</f>
+        <v>1003</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение формулировать свою позицию и доказывать её")</f>
+        <v>Умение формулировать свою позицию и доказывать её</v>
+      </c>
+      <c r="X4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
+        <v>1103</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
@@ -667,8 +709,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),904.0)</f>
         <v>904</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="U5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Союз как средство связи")</f>
+        <v>Союз как средство связи</v>
+      </c>
+      <c r="V5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
+        <v>1004</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -755,8 +803,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),905.0)</f>
         <v>905</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="U6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Частицы как средство связи")</f>
+        <v>Частицы как средство связи</v>
+      </c>
+      <c r="V6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
+        <v>1005</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -2727,8 +2781,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
         <v>229</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нормативное образование и употребление форм причастий и деепричастий")</f>
+        <v>Нормативное образование и употребление форм причастий и деепричастий</v>
+      </c>
+      <c r="H30" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
+      </c>
       <c r="I30" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неразличение синонимичных слов")</f>
         <v>Неразличение синонимичных слов</v>
@@ -3761,8 +3821,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение")</f>
+        <v>Пунктуация в простом предложении с однородными членами, связанными повторяющимися союзами, которые обозначают устойчивое выражение</v>
+      </c>
+      <c r="D45" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
+      </c>
       <c r="E45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эпифора")</f>
         <v>Эпифора</v>
@@ -3825,8 +3891,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пунктуация в простом предложении с несколькими рядами однородных членов")</f>
+        <v>Пунктуация в простом предложении с несколькими рядами однородных членов</v>
+      </c>
+      <c r="D46" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
+      </c>
       <c r="E46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексический повтор")</f>
         <v>Лексический повтор</v>
@@ -3889,8 +3961,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знаки препинания в ССП с общим членом")</f>
+        <v>Знаки препинания в ССП с общим членом</v>
+      </c>
+      <c r="D47" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
+      </c>
       <c r="E47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синтаксический параллелизм")</f>
         <v>Синтаксический параллелизм</v>
@@ -6503,8 +6581,14 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слова с приставками ПРЕ- и ПРИ- для запоминания")</f>
+        <v>Слова с приставками ПРЕ- и ПРИ- для запоминания</v>
+      </c>
+      <c r="B101" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
+        <v>1201</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6531,8 +6615,14 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение спряжения глагола")</f>
+        <v>Определение спряжения глагола</v>
+      </c>
+      <c r="B102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
+        <v>1202</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6559,8 +6649,14 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Слитное написание НИ")</f>
+        <v>Слитное написание НИ</v>
+      </c>
+      <c r="B103" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
+        <v>1203</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6587,8 +6683,14 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных")</f>
+        <v>Правописание -Н- и -НН- в суффиксах кратких отымённых прилагательных</v>
+      </c>
+      <c r="B104" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1204.0)</f>
+        <v>1204</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6615,8 +6717,14 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правописание -Н- в кратких причастиях")</f>
+        <v>Правописание -Н- в кратких причастиях</v>
+      </c>
+      <c r="B105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1205.0)</f>
+        <v>1205</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
